--- a/EuGeneCiDM_results_final/solution_11_plots_Cu_nimply_Zn.xlsx
+++ b/EuGeneCiDM_results_final/solution_11_plots_Cu_nimply_Zn.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wschroeder2\Documents\EuGeneCiDM_results_final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wheat\Documents\GitHub\EuGeneCiDM\EuGeneCiDM_results_final\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{541BA251-20AD-4BC9-8EF8-C74C58DC5862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="3"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_Prod" sheetId="1" r:id="rId1"/>
@@ -17,9 +18,6 @@
     <sheet name="Enz_Prod" sheetId="3" r:id="rId3"/>
     <sheet name="Enz_Level" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
@@ -78,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -157,7 +155,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -406,7 +403,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -443,7 +439,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -457,7 +452,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1525,7 +1519,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1632,7 +1625,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3996-42C8-8F2B-665F3C9F3264}"/>
+              <c16:uniqueId val="{00000000-C758-4A19-950B-BF95840F4456}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1734,7 +1727,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3996-42C8-8F2B-665F3C9F3264}"/>
+              <c16:uniqueId val="{00000001-C758-4A19-950B-BF95840F4456}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1774,7 +1767,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1811,7 +1803,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1825,7 +1816,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1865,12 +1855,352 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
+              <a:t>Zn/Zn Level</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>GFP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Enz_Level!$J$3:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Enz_Level!$K$3:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.41</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.74</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D61F-4A47-8B85-55D3C5B38D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>cI</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Enz_Level!$J$14:$J$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Enz_Level!$K$14:$K$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D61F-4A47-8B85-55D3C5B38D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="50150001"/>
+        <c:axId val="50150002"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="50150001"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="10"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time Point (relative)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150002"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="50150002"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="14"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Enzyme Level (relative)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="50150001"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
               <a:t>Cu/Zn Level</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1977,7 +2307,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E54A-4D3B-9D07-945DF9C4E01D}"/>
+              <c16:uniqueId val="{00000000-408F-499C-B44C-C1A55A679285}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2079,7 +2409,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E54A-4D3B-9D07-945DF9C4E01D}"/>
+              <c16:uniqueId val="{00000001-408F-499C-B44C-C1A55A679285}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2119,7 +2449,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2156,7 +2485,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2170,352 +2498,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Zn/Zn Level</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>GFP</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Enz_Level!$J$3:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Enz_Level!$K$3:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3E81-4329-9E47-4EA41B08E414}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>cI</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Enz_Level!$J$14:$J$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Enz_Level!$K$14:$K$24</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.78</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.1299999999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.22</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.34</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3E81-4329-9E47-4EA41B08E414}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="50150001"/>
-        <c:axId val="50150002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50150001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time Point (relative)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50150002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50150002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Enzyme Level (relative)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50150001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2560,7 +2542,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2667,7 +2648,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9727-4E5A-BFA2-7B94F4C19A20}"/>
+              <c16:uniqueId val="{00000000-55F1-49BC-A0F2-0D027C6FD776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2769,7 +2750,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9727-4E5A-BFA2-7B94F4C19A20}"/>
+              <c16:uniqueId val="{00000001-55F1-49BC-A0F2-0D027C6FD776}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2809,7 +2790,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2846,7 +2826,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2860,678 +2839,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>GFP</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Reponse</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Enzyme Level</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.21167041805226375"/>
-          <c:y val="0"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.18001257655293088"/>
-          <c:y val="9.3111111111111131E-2"/>
-          <c:w val="0.77451881014873136"/>
-          <c:h val="0.68742607174103232"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Cu/Zn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="7030A0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Enz_Level!$F$3:$F$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Enz_Level!$G$3:$G$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D37D-491A-A6C6-545EE2A829EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:v>Cu</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="7"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050"/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Enz_Level!$B$3:$B$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Enz_Level!$C$3:$C$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.27</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.93</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>13.03</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-D37D-491A-A6C6-545EE2A829EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Zn</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:srgbClr val="0070C0"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Enz_Level!$J$3:$J$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Enz_Level!$K$3:$K$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D37D-491A-A6C6-545EE2A829EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>no signal</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="plus"/>
-            <c:size val="10"/>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Enz_Level!$N$3:$N$14</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Enz_Level!$O$3:$O$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.34</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.74</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.97</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.22</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.29</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D37D-491A-A6C6-545EE2A829EA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="50130001"/>
-        <c:axId val="50130002"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="50130001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="10"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Time Point (relative)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50130002"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="50130002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="14"/>
-          <c:min val="0"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1600"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1600"/>
-                  <a:t>Enzyme Level (relative)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50130001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0"/>
-          <c:y val="0.92290223097112856"/>
-          <c:w val="1"/>
-          <c:h val="7.7097769028871388E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -3575,7 +2883,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3824,7 +3131,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3861,7 +3167,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -3875,7 +3180,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3920,7 +3224,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4169,7 +3472,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4206,7 +3508,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4220,7 +3521,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4265,7 +3565,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -4514,7 +3813,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4551,7 +3849,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4565,7 +3862,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6302,7 +5598,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6332,7 +5634,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6362,7 +5670,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6392,7 +5706,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6427,7 +5747,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6457,7 +5783,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6487,7 +5819,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6517,7 +5855,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6552,7 +5896,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6582,7 +5932,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6612,7 +5968,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6642,7 +6004,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6666,19 +6034,27 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{019E286B-5273-4E1D-B8BC-E978AE2BACA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6694,21 +6070,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>69144</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{725BBD7C-183B-4916-8E66-59B72D7DD02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6724,21 +6108,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>301978</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C0201CF-4B8F-4E7F-9BB6-749CC5AD6306}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6754,21 +6146,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>301978</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D7CBA51-BBA5-46D9-9B8C-9DA122972E28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -6782,345 +6182,7 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Trans_Prod"/>
-      <sheetName val="Trans_Level"/>
-      <sheetName val="Enz_Prod"/>
-      <sheetName val="Enz_Level"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="3">
-          <cell r="B3">
-            <v>0</v>
-          </cell>
-          <cell r="C3">
-            <v>0</v>
-          </cell>
-          <cell r="F3">
-            <v>0</v>
-          </cell>
-          <cell r="G3">
-            <v>0</v>
-          </cell>
-          <cell r="J3">
-            <v>0</v>
-          </cell>
-          <cell r="K3">
-            <v>0</v>
-          </cell>
-          <cell r="N3">
-            <v>0</v>
-          </cell>
-          <cell r="O3">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>1</v>
-          </cell>
-          <cell r="C4">
-            <v>0</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-          <cell r="G4">
-            <v>0</v>
-          </cell>
-          <cell r="J4">
-            <v>1</v>
-          </cell>
-          <cell r="K4">
-            <v>0</v>
-          </cell>
-          <cell r="N4">
-            <v>1</v>
-          </cell>
-          <cell r="O4">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>2</v>
-          </cell>
-          <cell r="C5">
-            <v>3.5</v>
-          </cell>
-          <cell r="F5">
-            <v>2</v>
-          </cell>
-          <cell r="G5">
-            <v>5.5</v>
-          </cell>
-          <cell r="J5">
-            <v>2</v>
-          </cell>
-          <cell r="K5">
-            <v>3.5</v>
-          </cell>
-          <cell r="N5">
-            <v>2</v>
-          </cell>
-          <cell r="O5">
-            <v>3.5</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>3</v>
-          </cell>
-          <cell r="C6">
-            <v>7</v>
-          </cell>
-          <cell r="F6">
-            <v>3</v>
-          </cell>
-          <cell r="G6">
-            <v>11</v>
-          </cell>
-          <cell r="J6">
-            <v>3</v>
-          </cell>
-          <cell r="K6">
-            <v>7</v>
-          </cell>
-          <cell r="N6">
-            <v>3</v>
-          </cell>
-          <cell r="O6">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>4</v>
-          </cell>
-          <cell r="C7">
-            <v>9.6300000000000008</v>
-          </cell>
-          <cell r="F7">
-            <v>4</v>
-          </cell>
-          <cell r="G7">
-            <v>15.13</v>
-          </cell>
-          <cell r="J7">
-            <v>4</v>
-          </cell>
-          <cell r="K7">
-            <v>9.6300000000000008</v>
-          </cell>
-          <cell r="N7">
-            <v>4</v>
-          </cell>
-          <cell r="O7">
-            <v>9.6300000000000008</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>5</v>
-          </cell>
-          <cell r="C8">
-            <v>11.38</v>
-          </cell>
-          <cell r="F8">
-            <v>5</v>
-          </cell>
-          <cell r="G8">
-            <v>17.88</v>
-          </cell>
-          <cell r="J8">
-            <v>5</v>
-          </cell>
-          <cell r="K8">
-            <v>11.38</v>
-          </cell>
-          <cell r="N8">
-            <v>5</v>
-          </cell>
-          <cell r="O8">
-            <v>11.38</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>6</v>
-          </cell>
-          <cell r="C9">
-            <v>12.47</v>
-          </cell>
-          <cell r="F9">
-            <v>6</v>
-          </cell>
-          <cell r="G9">
-            <v>19.600000000000001</v>
-          </cell>
-          <cell r="J9">
-            <v>6</v>
-          </cell>
-          <cell r="K9">
-            <v>12.47</v>
-          </cell>
-          <cell r="N9">
-            <v>6</v>
-          </cell>
-          <cell r="O9">
-            <v>12.47</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="C10">
-            <v>13.13</v>
-          </cell>
-          <cell r="F10">
-            <v>7</v>
-          </cell>
-          <cell r="G10">
-            <v>20.63</v>
-          </cell>
-          <cell r="J10">
-            <v>7</v>
-          </cell>
-          <cell r="K10">
-            <v>13.13</v>
-          </cell>
-          <cell r="N10">
-            <v>7</v>
-          </cell>
-          <cell r="O10">
-            <v>13.13</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>8</v>
-          </cell>
-          <cell r="C11">
-            <v>13.51</v>
-          </cell>
-          <cell r="F11">
-            <v>8</v>
-          </cell>
-          <cell r="G11">
-            <v>21.23</v>
-          </cell>
-          <cell r="J11">
-            <v>8</v>
-          </cell>
-          <cell r="K11">
-            <v>13.51</v>
-          </cell>
-          <cell r="N11">
-            <v>8</v>
-          </cell>
-          <cell r="O11">
-            <v>13.51</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>9</v>
-          </cell>
-          <cell r="C12">
-            <v>13.73</v>
-          </cell>
-          <cell r="F12">
-            <v>9</v>
-          </cell>
-          <cell r="G12">
-            <v>21.58</v>
-          </cell>
-          <cell r="J12">
-            <v>9</v>
-          </cell>
-          <cell r="K12">
-            <v>13.73</v>
-          </cell>
-          <cell r="N12">
-            <v>9</v>
-          </cell>
-          <cell r="O12">
-            <v>13.73</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>10</v>
-          </cell>
-          <cell r="C13">
-            <v>13.85</v>
-          </cell>
-          <cell r="F13">
-            <v>10</v>
-          </cell>
-          <cell r="G13">
-            <v>21.77</v>
-          </cell>
-          <cell r="J13">
-            <v>10</v>
-          </cell>
-          <cell r="K13">
-            <v>13.85</v>
-          </cell>
-          <cell r="N13">
-            <v>10</v>
-          </cell>
-          <cell r="O13">
-            <v>13.85</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7199,6 +6261,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -7234,6 +6313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7409,14 +6505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7430,7 +6526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -7468,7 +6564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -7506,7 +6602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -7544,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7582,7 +6678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -7620,7 +6716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -7658,7 +6754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -7696,7 +6792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -7734,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -7772,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -7810,7 +6906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -7848,7 +6944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -7886,7 +6982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -7924,7 +7020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -7962,7 +7058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -8000,7 +7096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -8038,7 +7134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -8076,7 +7172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -8114,7 +7210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -8152,7 +7248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -8190,7 +7286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -8228,7 +7324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -8266,7 +7362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -8311,14 +7407,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -8332,7 +7428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8370,7 +7466,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -8408,7 +7504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -8446,7 +7542,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8484,7 +7580,7 @@
         <v>1.03</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -8522,7 +7618,7 @@
         <v>1.28</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -8560,7 +7656,7 @@
         <v>1.43</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -8598,7 +7694,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>4</v>
       </c>
@@ -8636,7 +7732,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -8674,7 +7770,7 @@
         <v>1.64</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -8712,7 +7808,7 @@
         <v>1.66</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +7846,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -8788,7 +7884,7 @@
         <v>1.69</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -8826,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -8864,7 +7960,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -8902,7 +7998,7 @@
         <v>2.59</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -8940,7 +8036,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -8978,7 +8074,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -9016,7 +8112,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -9054,7 +8150,7 @@
         <v>3.26</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -9092,7 +8188,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -9130,7 +8226,7 @@
         <v>3.33</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -9168,7 +8264,7 @@
         <v>3.34</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -9213,14 +8309,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9234,7 +8330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9272,7 +8368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -9310,7 +8406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -9348,7 +8444,7 @@
         <v>1.26</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -9386,7 +8482,7 @@
         <v>2.0499999999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -9424,7 +8520,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -9462,7 +8558,7 @@
         <v>2.87</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -9500,7 +8596,7 @@
         <v>3.07</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -9538,7 +8634,7 @@
         <v>3.19</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -9576,7 +8672,7 @@
         <v>3.27</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -9614,7 +8710,7 @@
         <v>3.32</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -9652,7 +8748,7 @@
         <v>3.35</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -9690,7 +8786,7 @@
         <v>3.37</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -9728,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -9766,7 +8862,7 @@
         <v>3.76</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9804,7 +8900,7 @@
         <v>5.18</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -9842,7 +8938,7 @@
         <v>5.84</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -9880,7 +8976,7 @@
         <v>6.19</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -9918,7 +9014,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -9956,7 +9052,7 @@
         <v>6.53</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -9994,7 +9090,7 @@
         <v>6.61</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -10032,7 +9128,7 @@
         <v>6.66</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -10070,7 +9166,7 @@
         <v>6.69</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -10115,16 +9211,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M89" sqref="M89"/>
+    <sheetView tabSelected="1" zoomScale="47" workbookViewId="0">
+      <selection activeCell="AH56" sqref="AH56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -10138,7 +9234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -10176,7 +9272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -10214,7 +9310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -10252,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -10290,7 +9386,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -10328,7 +9424,7 @@
         <v>1.34</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -10366,7 +9462,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -10404,7 +9500,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -10442,7 +9538,7 @@
         <v>2.74</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -10480,7 +9576,7 @@
         <v>2.97</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -10518,7 +9614,7 @@
         <v>3.12</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -10556,7 +9652,7 @@
         <v>3.22</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -10594,7 +9690,7 @@
         <v>3.29</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -10632,7 +9728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -10670,7 +9766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -10708,7 +9804,7 @@
         <v>0.94</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -10746,7 +9842,7 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -10784,7 +9880,7 @@
         <v>1.84</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -10822,7 +9918,7 @@
         <v>2.0099999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -10860,7 +9956,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -10898,7 +9994,7 @@
         <v>2.16</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -10936,7 +10032,7 @@
         <v>2.19</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -10974,7 +10070,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>15</v>
       </c>
